--- a/Planning Documents/travel-budget.xlsx
+++ b/Planning Documents/travel-budget.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/youngbinha/Desktop/Trip-Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jakeworatzeck/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9000" yWindow="1060" windowWidth="19800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13800" yWindow="1080" windowWidth="19800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TravelBudget" sheetId="3" r:id="rId1"/>
@@ -173,9 +173,6 @@
     <t>Day0 Rent Car Fee(per day 66$)</t>
   </si>
   <si>
-    <t>Day0 Hotel</t>
-  </si>
-  <si>
     <t>Day1 Food(Lunch at Airport)</t>
   </si>
   <si>
@@ -243,6 +240,9 @@
   </si>
   <si>
     <t>Day0 Food(Dinner and Dessert)</t>
+  </si>
+  <si>
+    <t>Day0 Hotel + Tax (per day)</t>
   </si>
 </sst>
 </file>
@@ -250,10 +250,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="26" x14ac:knownFonts="1">
     <font>
@@ -763,10 +763,10 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="21" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="21" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -831,7 +831,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="4" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -839,7 +839,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="21" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="21" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -869,7 +869,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1087,16 +1087,16 @@
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.35375221110276478</c:v>
+                  <c:v>0.35162391326818881</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1060117763939034</c:v>
+                  <c:v>0.12142594066341446</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.38366166694936471</c:v>
+                  <c:v>0.37131780689667632</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.15657434555396704</c:v>
+                  <c:v>0.15563233917172042</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -1763,8 +1763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:M39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A9" zoomScale="93" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="93" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -1843,7 +1843,7 @@
       </c>
       <c r="G4" s="33">
         <f>H4/$C$6</f>
-        <v>0.35375221110276478</v>
+        <v>0.35162391326818881</v>
       </c>
       <c r="H4" s="58">
         <f>SUMIF($F$14:$F$38,"="&amp;F4,$J$14:$J$38)</f>
@@ -1865,15 +1865,15 @@
       </c>
       <c r="G5" s="34">
         <f>H5/$C$6</f>
-        <v>0.1060117763939034</v>
+        <v>0.12142594066341446</v>
       </c>
       <c r="H5" s="58">
         <f>SUMIF($F$14:$F$38,"="&amp;F5,$J$14:$J$38)</f>
-        <v>1050</v>
+        <v>1209.95</v>
       </c>
       <c r="I5" s="76">
         <f>C6</f>
-        <v>9904.5600000000013</v>
+        <v>9964.51</v>
       </c>
       <c r="J5" s="76"/>
       <c r="K5" s="76"/>
@@ -1883,20 +1883,20 @@
       <c r="B6" s="21"/>
       <c r="C6" s="38">
         <f>J39</f>
-        <v>9904.5600000000013</v>
+        <v>9964.51</v>
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="4"/>
       <c r="F6" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G6" s="35">
         <f t="shared" ref="G6:G7" si="0">H6/$C$6</f>
-        <v>0.38366166694936471</v>
+        <v>0.37131780689667632</v>
       </c>
       <c r="H6" s="58">
         <f>SUMIF($F$14:$F$38,"="&amp;F6,$J$14:$J$38)</f>
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="I6" s="76"/>
       <c r="J6" s="76"/>
@@ -1915,7 +1915,7 @@
       </c>
       <c r="G7" s="36">
         <f t="shared" si="0"/>
-        <v>0.15657434555396704</v>
+        <v>0.15563233917172042</v>
       </c>
       <c r="H7" s="58">
         <f>SUMIF($F$14:$F$38,"="&amp;F7,$J$14:$J$38)</f>
@@ -1930,7 +1930,7 @@
       <c r="B8" s="21"/>
       <c r="C8" s="66">
         <f>C4-C6</f>
-        <v>95.43999999999869</v>
+        <v>35.489999999999782</v>
       </c>
       <c r="D8" s="21"/>
       <c r="E8" s="4"/>
@@ -2071,7 +2071,7 @@
     <row r="16" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="69"/>
       <c r="C16" s="69" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="D16" s="69"/>
       <c r="E16" s="69"/>
@@ -2083,11 +2083,11 @@
         <v>7</v>
       </c>
       <c r="I16" s="57">
-        <v>150</v>
+        <v>172.85</v>
       </c>
       <c r="J16" s="63">
         <f t="shared" ref="J16:J38" si="1">IF(ISBLANK(I16),0,IF(ISBLANK(H16),I16,H16*I16))</f>
-        <v>1050</v>
+        <v>1209.95</v>
       </c>
       <c r="K16" s="65"/>
       <c r="M16" s="5"/>
@@ -2095,23 +2095,23 @@
     <row r="17" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="69"/>
       <c r="C17" s="69" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D17" s="69"/>
       <c r="E17" s="69"/>
       <c r="F17" s="53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G17" s="54"/>
       <c r="H17" s="50">
         <v>1</v>
       </c>
       <c r="I17" s="57">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="J17" s="63">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K17" s="65"/>
       <c r="M17" s="5"/>
@@ -2119,12 +2119,12 @@
     <row r="18" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="69"/>
       <c r="C18" s="69" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D18" s="69"/>
       <c r="E18" s="69"/>
       <c r="F18" s="53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G18" s="54"/>
       <c r="H18" s="50">
@@ -2143,23 +2143,23 @@
     <row r="19" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="69"/>
       <c r="C19" s="69" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D19" s="69"/>
       <c r="E19" s="69"/>
       <c r="F19" s="53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G19" s="54"/>
       <c r="H19" s="50">
         <v>1</v>
       </c>
       <c r="I19" s="57">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="J19" s="63">
         <f t="shared" si="1"/>
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="K19" s="65"/>
       <c r="M19" s="5"/>
@@ -2167,7 +2167,7 @@
     <row r="20" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="69"/>
       <c r="C20" s="69" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D20" s="69"/>
       <c r="E20" s="69"/>
@@ -2191,12 +2191,12 @@
     <row r="21" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="69"/>
       <c r="C21" s="69" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D21" s="69"/>
       <c r="E21" s="69"/>
       <c r="F21" s="53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G21" s="54"/>
       <c r="H21" s="50">
@@ -2215,7 +2215,7 @@
     <row r="22" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="69"/>
       <c r="C22" s="69" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D22" s="69"/>
       <c r="E22" s="69"/>
@@ -2239,12 +2239,12 @@
     <row r="23" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="69"/>
       <c r="C23" s="69" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D23" s="69"/>
       <c r="E23" s="69"/>
       <c r="F23" s="53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G23" s="54"/>
       <c r="H23" s="50">
@@ -2263,12 +2263,12 @@
     <row r="24" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="69"/>
       <c r="C24" s="69" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D24" s="69"/>
       <c r="E24" s="69"/>
       <c r="F24" s="53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G24" s="54"/>
       <c r="H24" s="50">
@@ -2287,7 +2287,7 @@
     <row r="25" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="69"/>
       <c r="C25" s="69" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D25" s="69"/>
       <c r="E25" s="69"/>
@@ -2311,12 +2311,12 @@
     <row r="26" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="69"/>
       <c r="C26" s="69" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D26" s="69"/>
       <c r="E26" s="69"/>
       <c r="F26" s="53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G26" s="54"/>
       <c r="H26" s="50">
@@ -2335,12 +2335,12 @@
     <row r="27" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="69"/>
       <c r="C27" s="69" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D27" s="69"/>
       <c r="E27" s="69"/>
       <c r="F27" s="53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G27" s="54"/>
       <c r="H27" s="50">
@@ -2359,7 +2359,7 @@
     <row r="28" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="69"/>
       <c r="C28" s="69" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D28" s="69"/>
       <c r="E28" s="69"/>
@@ -2383,7 +2383,7 @@
     <row r="29" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="69"/>
       <c r="C29" s="69" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D29" s="69"/>
       <c r="E29" s="69"/>
@@ -2407,12 +2407,12 @@
     <row r="30" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="69"/>
       <c r="C30" s="69" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D30" s="69"/>
       <c r="E30" s="69"/>
       <c r="F30" s="53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G30" s="54"/>
       <c r="H30" s="50">
@@ -2431,12 +2431,12 @@
     <row r="31" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="69"/>
       <c r="C31" s="69" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D31" s="69"/>
       <c r="E31" s="69"/>
       <c r="F31" s="53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G31" s="54"/>
       <c r="H31" s="50">
@@ -2455,7 +2455,7 @@
     <row r="32" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="69"/>
       <c r="C32" s="69" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D32" s="69"/>
       <c r="E32" s="69"/>
@@ -2478,7 +2478,7 @@
     <row r="33" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="69"/>
       <c r="C33" s="69" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D33" s="69"/>
       <c r="E33" s="69"/>
@@ -2501,12 +2501,12 @@
     <row r="34" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="69"/>
       <c r="C34" s="69" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D34" s="69"/>
       <c r="E34" s="69"/>
       <c r="F34" s="53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G34" s="54"/>
       <c r="H34" s="50">
@@ -2524,12 +2524,12 @@
     <row r="35" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="69"/>
       <c r="C35" s="69" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D35" s="69"/>
       <c r="E35" s="69"/>
       <c r="F35" s="53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G35" s="54"/>
       <c r="H35" s="50">
@@ -2548,7 +2548,7 @@
     <row r="36" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="69"/>
       <c r="C36" s="69" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D36" s="69"/>
       <c r="E36" s="69"/>
@@ -2571,12 +2571,12 @@
     <row r="37" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="69"/>
       <c r="C37" s="69" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D37" s="69"/>
       <c r="E37" s="69"/>
       <c r="F37" s="53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G37" s="54"/>
       <c r="H37" s="50">
@@ -2594,12 +2594,12 @@
     <row r="38" spans="2:13" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B38" s="69"/>
       <c r="C38" s="69" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D38" s="69"/>
       <c r="E38" s="69"/>
       <c r="F38" s="53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G38" s="54"/>
       <c r="H38" s="50">
@@ -2627,7 +2627,7 @@
       </c>
       <c r="J39" s="62">
         <f>SUM(J13:J38)</f>
-        <v>9904.5600000000013</v>
+        <v>9964.51</v>
       </c>
       <c r="K39" s="59"/>
     </row>
